--- a/data/trans_orig/Q04C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Edad-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.88729368245806</v>
+        <v>12.87230131302234</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.00804998048525</v>
+        <v>12.04813517401048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.97541482146243</v>
+        <v>13.05813388247446</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.29717021536048</v>
+        <v>16.31377889789167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.26749730082142</v>
+        <v>15.10031770393012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.23967515875505</v>
+        <v>15.23475215855068</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>10.25345344513663</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10.51852954865195</v>
+        <v>10.51852954865196</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.166261769350985</v>
+        <v>9.258550537683073</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.004392523334229</v>
+        <v>8.976328957521309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.528679125265967</v>
+        <v>9.545475849104244</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.7068256472396</v>
+        <v>12.47985852984753</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.66760095029338</v>
+        <v>11.58316110441109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.65518868934003</v>
+        <v>11.56295510620168</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.16752479474915</v>
+        <v>10.20028835654748</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.55713143675646</v>
+        <v>10.51817955721974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.49661790749951</v>
+        <v>10.59588649954896</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.40663738489138</v>
+        <v>12.35859550882966</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.1211406649842</v>
+        <v>12.11359863932325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.97205193184566</v>
+        <v>11.94392764156119</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.39775771780158</v>
+        <v>16.52949758773551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.64992586067881</v>
+        <v>17.82182974697802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17.35077783449883</v>
+        <v>17.33746803398168</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.87360770032308</v>
+        <v>18.9091222709603</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.48601032839726</v>
+        <v>19.53810046148288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.90331453423843</v>
+        <v>18.8482408693204</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.28562022907948</v>
+        <v>23.27598042720037</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.9104968720878</v>
+        <v>24.90214500626741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.38046103767686</v>
+        <v>24.37770826218579</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.98012230808434</v>
+        <v>25.85841474543745</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.83134308914538</v>
+        <v>26.90537171827995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.0785278958367</v>
+        <v>26.0926620386166</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>28.96046571931534</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>31.7604643438285</v>
+        <v>31.76046434382849</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>30.37976791243658</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>27.48067677364472</v>
+        <v>27.43045002918718</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>30.43046956677108</v>
+        <v>30.4690409080231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29.40309750888939</v>
+        <v>29.32299165638716</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.72116085547305</v>
+        <v>30.53128804100017</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>33.22641277385475</v>
+        <v>33.14171874723193</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31.43482354547271</v>
+        <v>31.4714921770241</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>37.22605285156413</v>
+        <v>37.22605285156415</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>40.30661840144826</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>35.15412152613222</v>
+        <v>35.20614662286903</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>38.63617767130943</v>
+        <v>38.73034024453685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>37.84450925545956</v>
+        <v>37.85824944032993</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>39.20096754577748</v>
+        <v>39.4090058876628</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>41.82182492564291</v>
+        <v>41.93792024327932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40.31772887985426</v>
+        <v>40.30470361781288</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>18.89752195991934</v>
+        <v>18.9497804360668</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>20.82889385323972</v>
+        <v>21.03674286122095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20.11206140711054</v>
+        <v>20.10480030046553</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>20.22256430486456</v>
+        <v>20.25506733801778</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.0617409043046</v>
+        <v>22.2401434528935</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21.03438984394537</v>
+        <v>20.99915540760027</v>
       </c>
     </row>
     <row r="28">
